--- a/SuppXLS/Scen_SUP_PotentialsRenewable.xlsx
+++ b/SuppXLS/Scen_SUP_PotentialsRenewable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28560" windowHeight="14640" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28560" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Biomass" sheetId="2" r:id="rId1"/>
@@ -15,75 +15,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Year</t>
   </si>
   <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>Trans - Insert</t>
+  </si>
+  <si>
+    <t>*Unit</t>
+  </si>
+  <si>
+    <t>SHR</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>PJ or I/E rule</t>
+  </si>
+  <si>
+    <t>CAP_BND</t>
+  </si>
+  <si>
+    <t>MW or I/E rule</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>WCH</t>
+  </si>
+  <si>
     <t>Pset_PN</t>
   </si>
   <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>LimType</t>
-  </si>
-  <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
-    <t>Trans - Insert</t>
-  </si>
-  <si>
-    <t>*Unit</t>
-  </si>
-  <si>
-    <t>SHR</t>
-  </si>
-  <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
-    <t>IMPCRN</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>IMPMNR</t>
-  </si>
-  <si>
-    <t>PJ or I/E rule</t>
-  </si>
-  <si>
-    <t>IMPRPS</t>
-  </si>
-  <si>
-    <t>IMPSGB</t>
-  </si>
-  <si>
-    <t>IMPSTR</t>
-  </si>
-  <si>
-    <t>IMPWCH</t>
-  </si>
-  <si>
-    <t>IMPWST</t>
-  </si>
-  <si>
-    <t>CAP_BND</t>
-  </si>
-  <si>
-    <t>IMPWIN</t>
-  </si>
-  <si>
-    <t>IMPWAV</t>
-  </si>
-  <si>
-    <t>MW or I/E rule</t>
+    <t>Process WIN</t>
+  </si>
+  <si>
+    <t>*~TFM_INS</t>
+  </si>
+  <si>
+    <t>ACTBND</t>
+  </si>
+  <si>
+    <t>Pset_CI</t>
   </si>
 </sst>
 </file>
@@ -219,7 +207,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,10 +219,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +531,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2050</v>
+      </c>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2050</v>
+      </c>
+      <c r="F6" s="11">
+        <v>25</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>C5</f>
+        <v>UP</v>
+      </c>
+      <c r="D7" t="str">
+        <f>D5</f>
+        <v>ACTBND</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="str">
+        <f>G5</f>
+        <v>STR</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f>C6</f>
+        <v>UP</v>
+      </c>
+      <c r="D8" t="str">
+        <f>D6</f>
+        <v>ACTBND</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="str">
+        <f>G6</f>
+        <v>WCH</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,479 +691,99 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>2050</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>60000</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2050</v>
-      </c>
-      <c r="F7" s="8">
-        <v>15</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2050</v>
-      </c>
-      <c r="F8" s="8">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2050</v>
-      </c>
-      <c r="F9" s="8">
-        <v>20</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2050</v>
-      </c>
-      <c r="F10" s="9">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2050</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="str">
-        <f t="shared" ref="C12:D18" si="0">C5</f>
-        <v>UP</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12" t="str">
-        <f>G5</f>
-        <v>IMPCRN</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" ref="G13:G18" si="1">G6</f>
-        <v>IMPMNR</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>IMPRPS</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>IMPSGB</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>IMPSTR</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>IMPWCH</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>IMPWST</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>2015</v>
-      </c>
-      <c r="F5">
-        <v>30000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>2050</v>
-      </c>
-      <c r="F6">
-        <v>60000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>2015</v>
-      </c>
-      <c r="F7">
-        <v>3000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2050</v>
-      </c>
-      <c r="F8" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="str">
+      <c r="C7" t="str">
         <f>C5</f>
         <v>UP</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D7" t="str">
         <f>D5</f>
         <v>CAP_BND</v>
       </c>
-      <c r="E9">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G7" t="str">
         <f>G5</f>
-        <v>IMPWIN</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="str">
-        <f>C7</f>
-        <v>UP</v>
-      </c>
-      <c r="D10" t="str">
-        <f>D7</f>
-        <v>CAP_BND</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="str">
-        <f>G7</f>
-        <v>IMPWAV</v>
+        <v>Process WIN</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_SUP_PotentialsRenewable.xlsx
+++ b/SuppXLS/Scen_SUP_PotentialsRenewable.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C17AB4D-3250-4DF6-B39F-F9210551028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28560" windowHeight="14640" activeTab="1"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biomass" sheetId="2" r:id="rId1"/>
-    <sheet name="Wind&amp;Wave" sheetId="15" r:id="rId2"/>
+    <sheet name="Wind" sheetId="15" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -47,40 +61,19 @@
     <t>ACT_BND</t>
   </si>
   <si>
-    <t>IMPCRN</t>
-  </si>
-  <si>
     <t>UP</t>
   </si>
   <si>
-    <t>IMPMNR</t>
-  </si>
-  <si>
     <t>PJ or I/E rule</t>
   </si>
   <si>
-    <t>IMPRPS</t>
-  </si>
-  <si>
-    <t>IMPSGB</t>
-  </si>
-  <si>
     <t>IMPSTR</t>
   </si>
   <si>
-    <t>IMPWCH</t>
-  </si>
-  <si>
-    <t>IMPWST</t>
-  </si>
-  <si>
     <t>CAP_BND</t>
   </si>
   <si>
     <t>IMPWIN</t>
-  </si>
-  <si>
-    <t>IMPWAV</t>
   </si>
   <si>
     <t>MW or I/E rule</t>
@@ -89,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,15 +196,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -219,7 +203,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,16 +215,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 44" xfId="2"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 44" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -256,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,9 +276,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,11 +521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,267 +577,45 @@
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>2050</v>
       </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="C6" t="str">
+        <f>C5</f>
+        <v>UP</v>
+      </c>
+      <c r="D6" t="str">
+        <f>D5</f>
+        <v>ACT_BND</v>
       </c>
       <c r="E6">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2050</v>
-      </c>
-      <c r="F7" s="8">
-        <v>15</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2050</v>
-      </c>
-      <c r="F8" s="8">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2050</v>
-      </c>
-      <c r="F9" s="8">
-        <v>20</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2050</v>
-      </c>
-      <c r="F10" s="9">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2050</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="str">
-        <f t="shared" ref="C12:D18" si="0">C5</f>
-        <v>UP</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G6" t="str">
         <f>G5</f>
-        <v>IMPCRN</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" ref="G13:G18" si="1">G6</f>
-        <v>IMPMNR</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>IMPRPS</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>IMPSGB</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
         <v>IMPSTR</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>IMPWCH</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>UP</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>IMPWST</v>
       </c>
     </row>
   </sheetData>
@@ -867,18 +625,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -923,16 +681,16 @@
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>2015</v>
@@ -941,15 +699,15 @@
         <v>30000</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>2050</v>
@@ -958,81 +716,27 @@
         <v>60000</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>2015</v>
-      </c>
-      <c r="F7">
-        <v>3000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2050</v>
-      </c>
-      <c r="F8" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="str">
+      <c r="C7" t="str">
         <f>C5</f>
         <v>UP</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D7" t="str">
         <f>D5</f>
         <v>CAP_BND</v>
       </c>
-      <c r="E9">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G7" t="str">
         <f>G5</f>
         <v>IMPWIN</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="str">
-        <f>C7</f>
-        <v>UP</v>
-      </c>
-      <c r="D10" t="str">
-        <f>D7</f>
-        <v>CAP_BND</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="str">
-        <f>G7</f>
-        <v>IMPWAV</v>
       </c>
     </row>
   </sheetData>
